--- a/Data/Results/Affinity_Summary_2016.xlsx
+++ b/Data/Results/Affinity_Summary_2016.xlsx
@@ -14,75 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>Ticker</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>Center</t>
   </si>
   <si>
     <t>Count</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>ATVI</t>
-  </si>
-  <si>
-    <t>ADBE</t>
-  </si>
-  <si>
-    <t>AMAT</t>
-  </si>
-  <si>
-    <t>BKI</t>
-  </si>
-  <si>
-    <t>DLR</t>
-  </si>
-  <si>
-    <t>DISH</t>
-  </si>
-  <si>
-    <t>EQIX</t>
-  </si>
-  <si>
-    <t>EXPE</t>
-  </si>
-  <si>
-    <t>FLT</t>
-  </si>
-  <si>
-    <t>TWTR</t>
-  </si>
-  <si>
-    <t>VIAC</t>
-  </si>
-  <si>
-    <t>CHGG</t>
-  </si>
-  <si>
-    <t>PRPL</t>
-  </si>
-  <si>
-    <t>LUMN</t>
-  </si>
-  <si>
-    <t>CALX</t>
-  </si>
-  <si>
-    <t>CMLS</t>
-  </si>
-  <si>
-    <t>TDS</t>
-  </si>
-  <si>
-    <t>USM</t>
-  </si>
-  <si>
-    <t>OSTK</t>
-  </si>
-  <si>
-    <t>SPSC</t>
+    <t>ATEN_2015</t>
+  </si>
+  <si>
+    <t>ATEN_2016</t>
+  </si>
+  <si>
+    <t>ATVI_2014</t>
+  </si>
+  <si>
+    <t>ATVI_2017</t>
+  </si>
+  <si>
+    <t>ATVI_2020</t>
+  </si>
+  <si>
+    <t>ADBE_2011</t>
+  </si>
+  <si>
+    <t>ADBE_2012</t>
+  </si>
+  <si>
+    <t>ADBE_2015</t>
+  </si>
+  <si>
+    <t>ADBE_2016</t>
+  </si>
+  <si>
+    <t>AMZN_2019</t>
+  </si>
+  <si>
+    <t>AMC_2015</t>
+  </si>
+  <si>
+    <t>APPF_2018</t>
+  </si>
+  <si>
+    <t>AAPL_2017</t>
+  </si>
+  <si>
+    <t>AAPL_2018</t>
+  </si>
+  <si>
+    <t>AMAT_2012</t>
+  </si>
+  <si>
+    <t>ADSK_2017</t>
+  </si>
+  <si>
+    <t>ADSK_2018</t>
+  </si>
+  <si>
+    <t>BBY_2011</t>
+  </si>
+  <si>
+    <t>BBY_2015</t>
   </si>
 </sst>
 </file>
@@ -440,16 +434,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,7 +453,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -473,10 +464,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -484,7 +475,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -495,7 +486,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>11</v>
@@ -506,10 +497,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -517,10 +508,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -528,10 +519,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -539,10 +530,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -550,10 +541,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -561,10 +552,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -572,7 +563,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -583,10 +574,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -594,10 +585,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -605,10 +596,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -616,10 +607,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -627,10 +618,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -638,7 +629,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -649,10 +640,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -660,20 +651,9 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21">
         <v>2</v>
       </c>
     </row>
